--- a/data_config/interface.xlsx
+++ b/data_config/interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superkoxui/Documents/GitHub/interface_ipi/data_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1213DF0-4E84-6747-8E8C-40505CBAFBDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BBD749-6AC0-E94C-A23C-BEC1C7043BDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="5980" windowWidth="28240" windowHeight="17440" xr2:uid="{A3549A6D-0AF2-B94B-ACF3-6BF27602E9E1}"/>
   </bookViews>
@@ -22,6 +22,55 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖数据所属字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,17 +432,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7FF68-463E-2B42-8085-850461F7989D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>123</v>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/interface.xlsx
+++ b/data_config/interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superkoxui/Documents/GitHub/interface_ipi/data_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BBD749-6AC0-E94C-A23C-BEC1C7043BDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2503E-9A91-5247-82AD-F350D1F3EA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="5980" windowWidth="28240" windowHeight="17440" xr2:uid="{A3549A6D-0AF2-B94B-ACF3-6BF27602E9E1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7FF68-463E-2B42-8085-850461F7989D}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,27 +458,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/data_config/interface.xlsx
+++ b/data_config/interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superkoxui/Documents/GitHub/interface_ipi/data_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2503E-9A91-5247-82AD-F350D1F3EA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B5632-1D98-234C-A30D-23342E7F9603}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="5980" windowWidth="28240" windowHeight="17440" xr2:uid="{A3549A6D-0AF2-B94B-ACF3-6BF27602E9E1}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,9 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7FF68-463E-2B42-8085-850461F7989D}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -449,40 +447,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_config/interface.xlsx
+++ b/data_config/interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superkoxui/Documents/GitHub/interface_ipi/data_config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0B5632-1D98-234C-A30D-23342E7F9603}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05E70B-D994-D04D-812C-100317299C6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37600" yWindow="5980" windowWidth="28240" windowHeight="17440" xr2:uid="{A3549A6D-0AF2-B94B-ACF3-6BF27602E9E1}"/>
+    <workbookView xWindow="41360" yWindow="8380" windowWidth="28240" windowHeight="17440" xr2:uid="{A3549A6D-0AF2-B94B-ACF3-6BF27602E9E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F7FF68-463E-2B42-8085-850461F7989D}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
